--- a/Modelagemdados.xlsx
+++ b/Modelagemdados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52450072829\Documents\senai_spmedgroup_sprint1_bd_manha_MatheusMarques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6583A6B8-3C0A-4627-9BD1-76C61B7844AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2979036E-B91C-43D0-B90C-D4A419ED1A87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{012B9FC7-E1F5-4B06-816A-11576F352CE1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Clínica</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>DataConsulta</t>
+  </si>
+  <si>
+    <t>IdTipoUsuario</t>
   </si>
 </sst>
 </file>
@@ -260,38 +263,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,9 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516B1057-69C7-46F4-9356-C5B19D61B7AD}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -626,197 +627,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="13"/>
+      <c r="F1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="K1" s="17" t="s">
+      <c r="I1" s="18"/>
+      <c r="K1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="17"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="F2" s="12" t="s">
+      <c r="D2" s="16"/>
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="K2" s="16" t="s">
+      <c r="I2" s="9"/>
+      <c r="K2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="14"/>
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="K3" s="16" t="s">
+      <c r="I3" s="9"/>
+      <c r="K3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="K4" s="16" t="s">
+      <c r="G4" s="8"/>
+      <c r="K4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="K5" s="16" t="s">
+      <c r="G5" s="8"/>
+      <c r="K5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="16"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="K6" s="16" t="s">
+      <c r="G6" s="8"/>
+      <c r="K6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="16"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="16"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="F9" s="18" t="s">
+      <c r="D9" s="17"/>
+      <c r="F9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="F10" s="19" t="s">
+      <c r="D10" s="5"/>
+      <c r="F10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="F11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="F12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="F11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="10" t="s">
+      <c r="D13" s="5"/>
+      <c r="F13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="F12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="10" t="s">
+      <c r="D14" s="5"/>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="F13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F15" s="19" t="s">
+      <c r="D15" s="5"/>
+      <c r="F15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
